--- a/inst/extdata/matrix_test/stressor_response_matrix_AB.xlsx
+++ b/inst/extdata/matrix_test/stressor_response_matrix_AB.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E4A87F-FDBD-4E93-BF68-F12CC9E82459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C40944-D1D9-45BE-933A-9A87090D15E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="516" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -450,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
@@ -472,10 +472,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -495,9 +495,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2575,7 +2572,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2587,7 +2584,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -2601,7 +2598,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -2615,7 +2612,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -2629,7 +2626,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="11" t="s">
